--- a/challenge_4/SCRUM/Daily Documentation.xlsx
+++ b/challenge_4/SCRUM/Daily Documentation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tom" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -46,6 +46,15 @@
     <t xml:space="preserve">network connection problems at the ITECH</t>
   </si>
   <si>
+    <t xml:space="preserve">starting with the website </t>
+  </si>
+  <si>
+    <t xml:space="preserve">working on the website </t>
+  </si>
+  <si>
+    <t xml:space="preserve">limited knwoledge</t>
+  </si>
+  <si>
     <t xml:space="preserve">playing FIFA</t>
   </si>
   <si>
@@ -55,6 +64,15 @@
     <t xml:space="preserve">i am tired of my life (jk)</t>
   </si>
   <si>
+    <t xml:space="preserve">scrum organisation, helping Raik with the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database, hopefully starting with the hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sql syntax</t>
+  </si>
+  <si>
     <t xml:space="preserve">chilling my life</t>
   </si>
   <si>
@@ -64,6 +82,15 @@
     <t xml:space="preserve">nothing, i am the fkn best</t>
   </si>
   <si>
+    <t xml:space="preserve">database, erm and dump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working on the sql dump, hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sql syntax of course</t>
+  </si>
+  <si>
     <t xml:space="preserve">enjoying the weekend</t>
   </si>
   <si>
@@ -71,6 +98,15 @@
   </si>
   <si>
     <t xml:space="preserve">my illness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">starting with the website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VM problems solving, Linux things</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux</t>
   </si>
 </sst>
 </file>
@@ -183,8 +219,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -225,6 +261,15 @@
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>45111</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -276,14 +321,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -305,70 +350,58 @@
         <v>45110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>45111</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>45112</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>45113</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>45114</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>45117</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>45118</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>45119</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -388,15 +421,15 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -418,70 +451,58 @@
         <v>45110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>45111</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>45112</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>45113</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>45114</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>45117</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>45118</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>45119</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -502,14 +523,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,70 +552,58 @@
         <v>45110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>45111</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>45112</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>45113</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>45114</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>45117</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>45118</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>45119</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/challenge_4/SCRUM/Daily Documentation.xlsx
+++ b/challenge_4/SCRUM/Daily Documentation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tom" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -55,6 +55,9 @@
     <t xml:space="preserve">limited knwoledge</t>
   </si>
   <si>
+    <t xml:space="preserve">website</t>
+  </si>
+  <si>
     <t xml:space="preserve">playing FIFA</t>
   </si>
   <si>
@@ -73,6 +76,12 @@
     <t xml:space="preserve">sql syntax</t>
   </si>
   <si>
+    <t xml:space="preserve">database finish, started with hardware (arduino, pi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardware</t>
+  </si>
+  <si>
     <t xml:space="preserve">chilling my life</t>
   </si>
   <si>
@@ -91,6 +100,9 @@
     <t xml:space="preserve">sql syntax of course</t>
   </si>
   <si>
+    <t xml:space="preserve">limited knowledge</t>
+  </si>
+  <si>
     <t xml:space="preserve">enjoying the weekend</t>
   </si>
   <si>
@@ -107,6 +119,15 @@
   </si>
   <si>
     <t xml:space="preserve">Linux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setting up the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system integration things</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nothing, i am the greatest</t>
   </si>
 </sst>
 </file>
@@ -220,7 +241,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -275,6 +296,15 @@
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>45112</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -321,7 +351,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -350,13 +380,13 @@
         <v>45110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -364,18 +394,27 @@
         <v>45111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>45112</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -421,13 +460,13 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.8"/>
   </cols>
@@ -451,13 +490,13 @@
         <v>45110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -465,18 +504,27 @@
         <v>45111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>45112</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,8 +570,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -552,13 +600,13 @@
         <v>45110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,18 +614,27 @@
         <v>45111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>45112</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/challenge_4/SCRUM/Daily Documentation.xlsx
+++ b/challenge_4/SCRUM/Daily Documentation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tom" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -52,12 +52,18 @@
     <t xml:space="preserve">working on the website </t>
   </si>
   <si>
-    <t xml:space="preserve">limited knwoledge</t>
+    <t xml:space="preserve">css</t>
   </si>
   <si>
     <t xml:space="preserve">website</t>
   </si>
   <si>
+    <t xml:space="preserve">working on the website, include informations from mqtt, db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of course css</t>
+  </si>
+  <si>
     <t xml:space="preserve">playing FIFA</t>
   </si>
   <si>
@@ -79,9 +85,21 @@
     <t xml:space="preserve">database finish, started with hardware (arduino, pi)</t>
   </si>
   <si>
+    <t xml:space="preserve">hardware and python</t>
+  </si>
+  <si>
     <t xml:space="preserve">hardware</t>
   </si>
   <si>
+    <t xml:space="preserve">finished prototype version of the python script and hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working on hardware and pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nothing</t>
+  </si>
+  <si>
     <t xml:space="preserve">chilling my life</t>
   </si>
   <si>
@@ -103,6 +121,15 @@
     <t xml:space="preserve">limited knowledge</t>
   </si>
   <si>
+    <t xml:space="preserve">hardware things, helping Linus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chinese fake gps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chinese</t>
+  </si>
+  <si>
     <t xml:space="preserve">enjoying the weekend</t>
   </si>
   <si>
@@ -128,6 +155,15 @@
   </si>
   <si>
     <t xml:space="preserve">nothing, i am the greatest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db, mqtt, website interfaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keep working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">still the greates</t>
   </si>
 </sst>
 </file>
@@ -240,14 +276,14 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="47.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.84"/>
   </cols>
   <sheetData>
@@ -310,6 +346,15 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>45113</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -351,12 +396,12 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.8"/>
   </cols>
@@ -380,13 +425,13 @@
         <v>45110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,13 +439,13 @@
         <v>45111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -408,18 +453,27 @@
         <v>45112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>45113</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -461,7 +515,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -490,13 +544,13 @@
         <v>45110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,13 +558,13 @@
         <v>45111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -518,18 +572,27 @@
         <v>45112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>45113</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -570,8 +633,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -600,13 +663,13 @@
         <v>45110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,13 +677,13 @@
         <v>45111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -628,18 +691,27 @@
         <v>45112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>45113</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/challenge_4/SCRUM/Daily Documentation.xlsx
+++ b/challenge_4/SCRUM/Daily Documentation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tom" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -64,6 +64,12 @@
     <t xml:space="preserve">of course css</t>
   </si>
   <si>
+    <t xml:space="preserve">sitting infront of my laptop, bug fixing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nothing hopefully</t>
+  </si>
+  <si>
     <t xml:space="preserve">playing FIFA</t>
   </si>
   <si>
@@ -130,6 +136,15 @@
     <t xml:space="preserve">chinese</t>
   </si>
   <si>
+    <t xml:space="preserve">including rfid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playing zelda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he doesnt know how to reach his goals exactly</t>
+  </si>
+  <si>
     <t xml:space="preserve">enjoying the weekend</t>
   </si>
   <si>
@@ -164,6 +179,15 @@
   </si>
   <si>
     <t xml:space="preserve">still the greates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connecting everything </t>
+  </si>
+  <si>
+    <t xml:space="preserve">complex task</t>
   </si>
 </sst>
 </file>
@@ -276,8 +300,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -360,6 +384,15 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>45114</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,13 +458,13 @@
         <v>45110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -439,13 +472,13 @@
         <v>45111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -453,13 +486,13 @@
         <v>45112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,13 +500,13 @@
         <v>45113</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -515,14 +548,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -544,13 +577,13 @@
         <v>45110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,13 +591,13 @@
         <v>45111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -572,13 +605,13 @@
         <v>45112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,18 +619,27 @@
         <v>45113</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>45114</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -633,8 +675,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -663,13 +705,13 @@
         <v>45110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,13 +719,13 @@
         <v>45111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,13 +733,13 @@
         <v>45112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,18 +747,27 @@
         <v>45113</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>45114</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
